--- a/data/trans_dic/P07_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P07_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08930289175054672</v>
+        <v>0.08566112336915374</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0776642842830593</v>
+        <v>0.07757451720277295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05548670292703273</v>
+        <v>0.05574683623699404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1041714739250064</v>
+        <v>0.1063171817988952</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1263785225835126</v>
+        <v>0.1274801150671756</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06954759249184087</v>
+        <v>0.06839604013109608</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0665611220681131</v>
+        <v>0.06954758727322735</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1156078732966423</v>
+        <v>0.1147198727694796</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1119139005820919</v>
+        <v>0.1126547437437327</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08077298397713362</v>
+        <v>0.08123153826050285</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06793682021209005</v>
+        <v>0.06828247451309011</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1139936577080203</v>
+        <v>0.1140138896761907</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1508932047370949</v>
+        <v>0.144761317211229</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1421140022194519</v>
+        <v>0.1472631781244274</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.106663021308742</v>
+        <v>0.1094146980425205</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1636942199315448</v>
+        <v>0.1619400332154883</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2109003539812742</v>
+        <v>0.2149643193380499</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1397118466906654</v>
+        <v>0.1350278896804498</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1347740910131525</v>
+        <v>0.1372273644806972</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1680981833670086</v>
+        <v>0.163360331069807</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1603586362553481</v>
+        <v>0.1633275244745097</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.130013615142919</v>
+        <v>0.1313785861399451</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1106908127624329</v>
+        <v>0.1115099217261247</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.153751991847795</v>
+        <v>0.1562033284831289</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1238609463878291</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1317875331703346</v>
+        <v>0.1317875331703347</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07928166204268061</v>
+        <v>0.08084365043595174</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0820579664848011</v>
+        <v>0.08131266907107124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08220651050531119</v>
+        <v>0.08466379483183901</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09495144315471807</v>
+        <v>0.09556896975052631</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1160626418306831</v>
+        <v>0.1181737215713098</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.103614554880842</v>
+        <v>0.103841712022031</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1006841502295133</v>
+        <v>0.1011583534840934</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1169970251967372</v>
+        <v>0.1183568616453397</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1074559536335618</v>
+        <v>0.1068015864356899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09921547196789431</v>
+        <v>0.1004458699789812</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1014702539869727</v>
+        <v>0.1011974796256701</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1124761497922871</v>
+        <v>0.1127971813164508</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1449356552520798</v>
+        <v>0.1436277021567575</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1487836568163708</v>
+        <v>0.1484225973026247</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1531871656681279</v>
+        <v>0.1529955016783555</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1486080343662091</v>
+        <v>0.1515117302727896</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1935127076528874</v>
+        <v>0.1966740239826409</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1873554045597203</v>
+        <v>0.1846651412892609</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1760953784103154</v>
+        <v>0.1745066710896815</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1757377412123298</v>
+        <v>0.1745163808470788</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1582307323355638</v>
+        <v>0.1576626448144325</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1524566385958807</v>
+        <v>0.1536465848264413</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1503312001683545</v>
+        <v>0.1494416332444345</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1512652617487788</v>
+        <v>0.1511006766040536</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1336240812755814</v>
+        <v>0.129718075183003</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1880256553539686</v>
+        <v>0.1922000681257288</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1450883952937739</v>
+        <v>0.1412254604277973</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1693448898292145</v>
+        <v>0.1717296522728961</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2108563966250036</v>
+        <v>0.219462510794213</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1883760626382441</v>
+        <v>0.189622176132064</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2027375486075617</v>
+        <v>0.2055211483243272</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2277665609199866</v>
+        <v>0.2304448569563772</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1632098732231949</v>
+        <v>0.1624581549376031</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2007039079520061</v>
+        <v>0.1984750082142909</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1692963427040839</v>
+        <v>0.1697874432027386</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1949808290248044</v>
+        <v>0.1957894631981467</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1952895740860896</v>
+        <v>0.1955106673576987</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2607385859715554</v>
+        <v>0.2603367368108645</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2108481889728911</v>
+        <v>0.2119720505955009</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2419422424245975</v>
+        <v>0.2466895134137388</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.351001389322661</v>
+        <v>0.3529130717894254</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2955229539906423</v>
+        <v>0.2968990193360574</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3472951700107897</v>
+        <v>0.351049355734849</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3357152448570522</v>
+        <v>0.3345319168794788</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2205037132952885</v>
+        <v>0.2238771151298936</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2590180237253148</v>
+        <v>0.2555060864953409</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2310539093568098</v>
+        <v>0.2377323739199828</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2541252128277916</v>
+        <v>0.2553550970726791</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1688710078610296</v>
+        <v>0.1690801378462383</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1751758336647308</v>
+        <v>0.1783062827604832</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1696079172890668</v>
+        <v>0.1697542041670378</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1925318820584784</v>
+        <v>0.193122870010031</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2128771326599551</v>
+        <v>0.2139426206866695</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1831904165401489</v>
+        <v>0.1864937912056074</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1721011789007885</v>
+        <v>0.1740370037313151</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1876344725757895</v>
+        <v>0.1866393056259307</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1922442671495119</v>
+        <v>0.1925396825000836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1886007288955679</v>
+        <v>0.1868554500834207</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1771430255209125</v>
+        <v>0.1767264626573285</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1975049339019228</v>
+        <v>0.1967599878993868</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2115829456020722</v>
+        <v>0.2110415857437416</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.223909514337465</v>
+        <v>0.2276098613393587</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2158391599137067</v>
+        <v>0.2157522272049159</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2403857924916304</v>
+        <v>0.2411197851815811</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2759483701957793</v>
+        <v>0.2798661106418465</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2449557746935678</v>
+        <v>0.2485689333940377</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2279040570339804</v>
+        <v>0.2303018325212106</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2342048909717772</v>
+        <v>0.2320435655041308</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2296865475283588</v>
+        <v>0.228458608252618</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2295144684292386</v>
+        <v>0.2238721313835775</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2126942150213711</v>
+        <v>0.2136081549202119</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2293682970525558</v>
+        <v>0.2312896441351253</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3139477374990677</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3412384364504195</v>
+        <v>0.3412384364504196</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.29137395500174</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1837927195531058</v>
+        <v>0.1869899986288295</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1518647344331656</v>
+        <v>0.1513425971204328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1865645177071241</v>
+        <v>0.1885899808215983</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.179059235577932</v>
+        <v>0.1778549954157147</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2900758693337929</v>
+        <v>0.2917280496939439</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3297612680254637</v>
+        <v>0.3262380244143382</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2803745800423063</v>
+        <v>0.277940582775705</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3136814725361053</v>
+        <v>0.3148000401771914</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2633896142763691</v>
+        <v>0.2624536283370341</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2650894870780924</v>
+        <v>0.2653261928942675</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2469947766962788</v>
+        <v>0.2441279286316736</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2664449290362028</v>
+        <v>0.2672756482558724</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2770954069532726</v>
+        <v>0.2794121666804539</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2209674479277496</v>
+        <v>0.219649959455094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2533313625324179</v>
+        <v>0.2534546296819636</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2501467359913969</v>
+        <v>0.2478374338539866</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3745878430666228</v>
+        <v>0.3732836564253711</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4008909356521061</v>
+        <v>0.3993206076358755</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3481059750924901</v>
+        <v>0.351507497181232</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3678249437272014</v>
+        <v>0.3655301606814944</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3221927122442287</v>
+        <v>0.3217451307595615</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3158298839865218</v>
+        <v>0.3187051239565196</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.297666915017498</v>
+        <v>0.296965651080464</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3106885319489384</v>
+        <v>0.3112590467656052</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2911357043034016</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2964710279211456</v>
+        <v>0.2964710279211457</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2984721101927347</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02146553251117023</v>
+        <v>0.02240265294526114</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02626183528720753</v>
+        <v>0.0250285233410753</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01445531508235689</v>
+        <v>0.016529140589434</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02189519973259366</v>
+        <v>0.02205992623552816</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3347993667138929</v>
+        <v>0.3338777872779635</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3017768361042517</v>
+        <v>0.3002429070905361</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2630480773515276</v>
+        <v>0.2622628870452074</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2707157727596821</v>
+        <v>0.2718650103213107</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2758222845888554</v>
+        <v>0.2751544264517808</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2504581243040947</v>
+        <v>0.247375247411218</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.212777529073696</v>
+        <v>0.2098776781055581</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2158588654111927</v>
+        <v>0.2180255490533358</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06758401907778849</v>
+        <v>0.06898144822488045</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08937270901728496</v>
+        <v>0.09077229082546603</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05396067365720291</v>
+        <v>0.05478079293758564</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08078844120252143</v>
+        <v>0.07963934450042136</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3885867586400358</v>
+        <v>0.3870795725571384</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3607306312660045</v>
+        <v>0.3583782618688711</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3216300214105536</v>
+        <v>0.3226118963697894</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3243626710300385</v>
+        <v>0.3257655038338659</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3223642046396156</v>
+        <v>0.3224398930535933</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2957993016679086</v>
+        <v>0.2998322690921337</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2600523121169636</v>
+        <v>0.2610659095632151</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2640508847782612</v>
+        <v>0.2656998309094389</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1445465045291038</v>
+        <v>0.1441294785330855</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1531925560747343</v>
+        <v>0.1537457563773958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1448616679170337</v>
+        <v>0.1451351489841044</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.163325554021004</v>
+        <v>0.1624263573536515</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2701237940821553</v>
+        <v>0.2716348453119236</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2507920296112854</v>
+        <v>0.2509366905339565</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2225884272255026</v>
+        <v>0.2233095084539791</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2349116213219368</v>
+        <v>0.2353743997749501</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.212904399043307</v>
+        <v>0.2124174110907169</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2070467128215001</v>
+        <v>0.2075340735405384</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.187750088964364</v>
+        <v>0.189700862267711</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2028724040370031</v>
+        <v>0.2030570573816484</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1695200399943432</v>
+        <v>0.1691751245906116</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1807233140904053</v>
+        <v>0.1818950350451117</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1698296037606882</v>
+        <v>0.1693068294266538</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1880645326728052</v>
+        <v>0.1881053130049401</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3015198795260894</v>
+        <v>0.3012807356803162</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2796620373664206</v>
+        <v>0.2803681006980345</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2526448101474938</v>
+        <v>0.2519406440286693</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2572717215573935</v>
+        <v>0.2587233263635841</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2321988646626403</v>
+        <v>0.2325541707248792</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2268032307756931</v>
+        <v>0.2274792020797993</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2076288767808924</v>
+        <v>0.2081054319195184</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2206181415730172</v>
+        <v>0.2207642950436857</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42310</v>
+        <v>40584</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>33805</v>
+        <v>33766</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23643</v>
+        <v>23754</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>57359</v>
+        <v>58540</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>38758</v>
+        <v>39096</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>21870</v>
+        <v>21507</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23100</v>
+        <v>24137</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>56464</v>
+        <v>56030</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>87344</v>
+        <v>87922</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>60558</v>
+        <v>60901</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>52526</v>
+        <v>52794</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>118443</v>
+        <v>118464</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>71490</v>
+        <v>68584</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61858</v>
+        <v>64100</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45450</v>
+        <v>46623</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>90133</v>
+        <v>89167</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>64679</v>
+        <v>65925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>43933</v>
+        <v>42460</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>46774</v>
+        <v>47625</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>82101</v>
+        <v>79787</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>125153</v>
+        <v>127470</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>97475</v>
+        <v>98498</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>85582</v>
+        <v>86216</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>159753</v>
+        <v>162300</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>29005</v>
+        <v>29577</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>34366</v>
+        <v>34054</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30937</v>
+        <v>31861</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>45882</v>
+        <v>46180</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>43160</v>
+        <v>43945</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>34921</v>
+        <v>34997</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>37482</v>
+        <v>37659</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>49506</v>
+        <v>50082</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>79272</v>
+        <v>78789</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>74989</v>
+        <v>75919</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>75961</v>
+        <v>75757</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>101943</v>
+        <v>102234</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>53025</v>
+        <v>52546</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>62310</v>
+        <v>62159</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>57649</v>
+        <v>57577</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>71809</v>
+        <v>73212</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>71961</v>
+        <v>73136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>63143</v>
+        <v>62237</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>65556</v>
+        <v>64964</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>74362</v>
+        <v>73845</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>116729</v>
+        <v>116310</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>115230</v>
+        <v>116129</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>112538</v>
+        <v>111872</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>137100</v>
+        <v>136951</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>72476</v>
+        <v>70358</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>117774</v>
+        <v>120389</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>75724</v>
+        <v>73708</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>79865</v>
+        <v>80990</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>35378</v>
+        <v>36822</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>49002</v>
+        <v>49326</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33253</v>
+        <v>33710</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>42706</v>
+        <v>43208</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>115907</v>
+        <v>115373</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>177925</v>
+        <v>175949</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>116126</v>
+        <v>116463</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>128514</v>
+        <v>129047</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>105923</v>
+        <v>106043</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>163320</v>
+        <v>163068</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>110045</v>
+        <v>110631</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>114103</v>
+        <v>116342</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>58892</v>
+        <v>59212</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>76874</v>
+        <v>77232</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>56964</v>
+        <v>57580</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>62946</v>
+        <v>62724</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>156595</v>
+        <v>158991</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>229620</v>
+        <v>226507</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>158488</v>
+        <v>163069</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>167496</v>
+        <v>168307</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>209119</v>
+        <v>209378</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>202804</v>
+        <v>206429</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>194988</v>
+        <v>195156</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>217916</v>
+        <v>218585</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>152055</v>
+        <v>152816</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>140444</v>
+        <v>142977</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>142134</v>
+        <v>143733</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>161593</v>
+        <v>160736</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>375380</v>
+        <v>375957</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>362939</v>
+        <v>359580</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>349949</v>
+        <v>349126</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>393638</v>
+        <v>392153</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>262010</v>
+        <v>261340</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>259224</v>
+        <v>263508</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>248137</v>
+        <v>248037</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>272079</v>
+        <v>272910</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>197106</v>
+        <v>199904</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>187797</v>
+        <v>190567</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>188220</v>
+        <v>190201</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>201700</v>
+        <v>199838</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>448491</v>
+        <v>446093</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>441672</v>
+        <v>430814</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>420180</v>
+        <v>421986</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>457143</v>
+        <v>460973</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>64429</v>
+        <v>65550</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>77427</v>
+        <v>77161</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>115802</v>
+        <v>117059</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>101699</v>
+        <v>101015</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>164981</v>
+        <v>165921</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>250157</v>
+        <v>247484</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>206394</v>
+        <v>204602</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>260622</v>
+        <v>261552</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>242136</v>
+        <v>241275</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>336251</v>
+        <v>336551</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>335133</v>
+        <v>331243</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>372707</v>
+        <v>373869</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>97137</v>
+        <v>97949</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>112659</v>
+        <v>111987</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>157244</v>
+        <v>157321</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>142074</v>
+        <v>140763</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>213048</v>
+        <v>212306</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>304116</v>
+        <v>302925</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>256254</v>
+        <v>258758</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>305607</v>
+        <v>303701</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>296194</v>
+        <v>295783</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>400613</v>
+        <v>404260</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>403887</v>
+        <v>402936</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>434595</v>
+        <v>435394</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6401</v>
+        <v>6680</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7009</v>
+        <v>6680</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4137</v>
+        <v>4730</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5194</v>
+        <v>5233</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>418084</v>
+        <v>416933</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>334491</v>
+        <v>332791</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>284356</v>
+        <v>283507</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>228560</v>
+        <v>229530</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>426686</v>
+        <v>425653</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>344452</v>
+        <v>340212</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>290908</v>
+        <v>286943</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>233453</v>
+        <v>235797</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>20154</v>
+        <v>20570</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23852</v>
+        <v>24225</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15443</v>
+        <v>15678</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19165</v>
+        <v>18893</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>485252</v>
+        <v>483369</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>399836</v>
+        <v>397229</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>347683</v>
+        <v>348744</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>273853</v>
+        <v>275038</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>498685</v>
+        <v>498802</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>406809</v>
+        <v>412356</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>355542</v>
+        <v>356927</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>285573</v>
+        <v>287357</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>472538</v>
+        <v>471175</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>523135</v>
+        <v>525024</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>489761</v>
+        <v>490686</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>562244</v>
+        <v>559149</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>912512</v>
+        <v>917616</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>889126</v>
+        <v>889639</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>784928</v>
+        <v>787471</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>853996</v>
+        <v>855678</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1415225</v>
+        <v>1411987</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1441078</v>
+        <v>1444470</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1296838</v>
+        <v>1310312</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1435904</v>
+        <v>1437211</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>554179</v>
+        <v>553051</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>617150</v>
+        <v>621151</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>574175</v>
+        <v>572407</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>647408</v>
+        <v>647548</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1018572</v>
+        <v>1017764</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>991478</v>
+        <v>993981</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>890918</v>
+        <v>888435</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>935284</v>
+        <v>940561</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1543479</v>
+        <v>1545841</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1578587</v>
+        <v>1583292</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1434145</v>
+        <v>1437437</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1561506</v>
+        <v>1562541</v>
       </c>
     </row>
     <row r="32">
